--- a/Truth-or-Dare/策划文档/美术需求/美术需求-1.18.xlsx
+++ b/Truth-or-Dare/策划文档/美术需求/美术需求-1.18.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\美术需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F81D01-4C27-4D71-A61A-E00B3D269D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4B7348-8C18-41FD-A8BD-D182F5060414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="立绘需求" sheetId="1" r:id="rId1"/>
+    <sheet name="CG需求" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -83,12 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>害羞：有些不好意思，但并不讨厌（面对男主想要亲吻的需求时）</t>
-  </si>
-  <si>
-    <t>羞耻：看到陌生男性裸体时候表现出的带一些生气感觉的表情</t>
-  </si>
-  <si>
     <t>基础（微笑）：带着一些微笑感觉的表情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,19 +96,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闭眼微笑：更加温柔的，眼睛像是闭着的笑容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纠结：面对困难选择时表现出的表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抱怨：有些可爱感觉的生气，鼓着嘴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>诱惑：女主角被寝取られ之后的，变的放纵，开始主动邀请别人发生性关系时候的表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大笑：闭着眼睛，嘴巴张开的笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒娇：有一些诱惑感的，微笑的表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羞耻+慌张：看到陌生男性裸体时候表现出的带一些生气感觉的表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微笑+尴尬：想要拒绝别人，但不知道怎么说，只能尴尬的微笑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,8 +196,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -306,15 +310,6 @@
             <a:srgbClr val="FFFFFF"/>
           </a:contourClr>
         </a:sp3d>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -395,15 +390,6 @@
             <a:srgbClr val="C0C0C0"/>
           </a:contourClr>
         </a:sp3d>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -411,22 +397,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>70152</xdr:rowOff>
+      <xdr:colOff>213361</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>411481</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1135094</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1245281</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906D97EB-D19C-D761-F261-FC82F9E50284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C82EF1-B785-1DD7-9A18-9548F3FE0CE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -442,8 +428,316 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972301" y="11164872"/>
-          <a:ext cx="1455420" cy="1064942"/>
+          <a:off x="6918961" y="16260784"/>
+          <a:ext cx="1173479" cy="1138897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480061</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572662</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1245269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7ADDA6F-DEB5-B220-E93E-A9F19B0E5B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7185661" y="10149840"/>
+          <a:ext cx="793641" cy="925229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1142295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18989DB6-C035-DE4E-50A4-8341A4B09881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7132320" y="13712873"/>
+          <a:ext cx="952500" cy="1053982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43621</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1182704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE27E8F9-A2FD-A612-DF90-94846C7FC199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7071360" y="7513320"/>
+          <a:ext cx="988501" cy="969344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1249680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18647</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1226396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DD1F62-0E7F-0BC2-96F7-4A4FE130822E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7040880" y="8549640"/>
+          <a:ext cx="994007" cy="1241636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312421</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1181875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36268719-FC30-82DC-792B-90F21475307E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018021" y="14983870"/>
+          <a:ext cx="1043940" cy="1087485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1026120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34998A6F-47BF-BF1D-2211-7CFBF70AFE62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7018020" y="17471488"/>
+          <a:ext cx="1013460" cy="973952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>308245</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1207515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2A558B-6BF1-6634-7A08-03FA35FB0293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="12489180"/>
+          <a:ext cx="1390285" cy="1077975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,268 +1014,268 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="10.21875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="10.21875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q5"/>
     </row>
     <row r="6" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="2:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="3:14" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="3:14" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="L32:N32"/>
+    <mergeCell ref="C33:K33"/>
     <mergeCell ref="L33:N33"/>
-    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="C32:K32"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
     <mergeCell ref="C28:K28"/>
     <mergeCell ref="C29:K29"/>
     <mergeCell ref="C30:K30"/>
     <mergeCell ref="C31:K31"/>
-    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L31:N31"/>
     <mergeCell ref="C9:H10"/>
     <mergeCell ref="C6:H7"/>
     <mergeCell ref="C25:K25"/>
@@ -992,4 +1286,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4656CABE-1848-4FB1-A05A-4892A54EDA83}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>